--- a/Miscellaneous/Participants_installation_success.xlsx
+++ b/Miscellaneous/Participants_installation_success.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Arvind Singh</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Bin Wu</t>
   </si>
   <si>
-    <t>no PGSQL and Psycopg2</t>
-  </si>
-  <si>
     <t>Roberto Benavides</t>
   </si>
   <si>
@@ -112,6 +109,18 @@
   </si>
   <si>
     <t>Windows 8</t>
+  </si>
+  <si>
+    <t>Trystan Sanders</t>
+  </si>
+  <si>
+    <t>Kirti Ranesh</t>
+  </si>
+  <si>
+    <t>Rafik Neme</t>
+  </si>
+  <si>
+    <t>Anke Faehnrich</t>
   </si>
 </sst>
 </file>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -671,8 +680,8 @@
       <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="C14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -680,7 +689,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -691,7 +700,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -702,10 +711,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -713,7 +722,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -724,10 +733,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -735,16 +744,60 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="E20">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
